--- a/design.xlsx
+++ b/design.xlsx
@@ -16,15 +16,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -44,30 +59,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -82,16 +75,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,15 +107,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -131,9 +116,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,16 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +153,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,19 +183,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,163 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +374,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,6 +406,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,26 +449,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -460,17 +464,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,148 +479,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,10 +752,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>walker</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="zh-CN" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1070,9 +1070,13 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="" altLang="en-US" sz="1100"/>
-              <a:t>unrar	</a:t>
+              <a:t>Unarchive</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+              <a:t>	</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1208,12 +1212,36 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>un</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>unrar all files</a:t>
+              <a:t>archive</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> all files</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> to des dir</a:t>
             </a:r>
             <a:endParaRPr lang="" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1274,10 +1302,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>Got file structs</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1382,10 +1410,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>channel: files</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="zh-CN" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1552,10 +1580,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
               <a:t>File: struct</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1691,14 +1719,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:rPr lang="en-US" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>path</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1707,14 +1735,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:rPr lang="en-US" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>name</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1723,14 +1751,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:rPr lang="en-US" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>size</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1739,14 +1767,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:rPr lang="en-US" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>modTime</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1910,10 +1938,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>file</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2235,7 +2263,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18.75"/>
